--- a/Input_Excel/24_03_001.xlsx
+++ b/Input_Excel/24_03_001.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tatatechnologies.sharepoint.com/sites/MBSE_Team-SAARCONN/Shared Documents/SAARCONN/Eliminating_SystemDesk/tests/Harshit_arelements_validation_24_03/COMBINED_AUTOMATION/Input_Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="8_{0682CB01-6980-4C9D-9945-74DE496AF0E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3F5EFDF1-DB26-44DE-A217-6DE603A74E58}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="8_{0682CB01-6980-4C9D-9945-74DE496AF0E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D892C8AF-A7CB-4F3D-A5FD-3BA3C8701E54}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15480" tabRatio="897" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15480" tabRatio="897" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="project_info" sheetId="2" r:id="rId1"/>
@@ -191,7 +191,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="474">
   <si>
     <t>Document Information</t>
   </si>
@@ -1913,7 +1913,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2088,9 +2088,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2099,6 +2096,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2121,6 +2121,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2130,7 +2131,7 @@
     <cellStyle name="Normal 3 2" xfId="5" xr:uid="{A7465F0D-32F4-441F-B608-D2377C53BCAC}"/>
     <cellStyle name="Normal 4" xfId="4" xr:uid="{78F29D87-BFD7-4048-94F5-4F2BC6A7962D}"/>
   </cellStyles>
-  <dxfs count="31">
+  <dxfs count="36">
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -2413,6 +2414,59 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <border>
+        <left style="dashDot">
+          <color rgb="FFFF0000"/>
+        </left>
+        <right style="dashDot">
+          <color rgb="FFFF0000"/>
+        </right>
+        <top style="dashDot">
+          <color rgb="FFFF0000"/>
+        </top>
+        <bottom style="dashDot">
+          <color rgb="FFFF0000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+      </font>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFDE7D52"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+      </font>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFDE7D52"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -2441,6 +2495,26 @@
         <vertical/>
         <horizontal/>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -3329,24 +3403,24 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="C2:E1048">
-    <cfRule type="expression" dxfId="30" priority="12">
+    <cfRule type="expression" dxfId="35" priority="12">
       <formula>NOT(AND(   OR(AND(CODE(LEFT(C2,1))&gt;=65, CODE(LEFT(C2,1))&lt;=90), AND(CODE(LEFT(C2,1))&gt;=97, CODE(LEFT(C2,1))&lt;=122)),   SUMPRODUCT(--ISNUMBER(SEARCH(MID(C2, ROW(INDIRECT("1:" &amp; LEN(C2))), 1), "ABCDEFGHIJKLMNOPQRSTUVWXYZabcdefghijklmnopqrstuvwxyz0123456789_")))=LEN(C2) ))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H1048">
-    <cfRule type="duplicateValues" dxfId="29" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:I1048">
-    <cfRule type="expression" dxfId="28" priority="10">
+    <cfRule type="expression" dxfId="33" priority="10">
       <formula>NOT(AND(   OR(AND(CODE(LEFT(H2,1))&gt;=65, CODE(LEFT(H2,1))&lt;=90), AND(CODE(LEFT(H2,1))&gt;=97, CODE(LEFT(H2,1))&lt;=122)),   SUMPRODUCT(--ISNUMBER(SEARCH(MID(H2, ROW(INDIRECT("1:" &amp; LEN(H2))), 1), "ABCDEFGHIJKLMNOPQRSTUVWXYZabcdefghijklmnopqrstuvwxyz0123456789_")))=LEN(H2) ))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I1048">
-    <cfRule type="duplicateValues" dxfId="27" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K1048">
-    <cfRule type="duplicateValues" dxfId="26" priority="7"/>
-    <cfRule type="expression" dxfId="25" priority="11">
+    <cfRule type="duplicateValues" dxfId="31" priority="7"/>
+    <cfRule type="expression" dxfId="30" priority="11">
       <formula>NOT(AND(   OR(AND(CODE(LEFT(K2,1))&gt;=65, CODE(LEFT(K2,1))&lt;=90), AND(CODE(LEFT(K2,1))&gt;=97, CODE(LEFT(K2,1))&lt;=122)),   SUMPRODUCT(--ISNUMBER(SEARCH(MID(K2, ROW(INDIRECT("1:" &amp; LEN(K2))), 1), "ABCDEFGHIJKLMNOPQRSTUVWXYZabcdefghijklmnopqrstuvwxyz0123456789_")))=LEN(K2) ))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3723,8 +3797,8 @@
   <dataConsolidate/>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="C2:C1048">
-    <cfRule type="duplicateValues" dxfId="24" priority="1"/>
-    <cfRule type="expression" dxfId="23" priority="2">
+    <cfRule type="duplicateValues" dxfId="29" priority="1"/>
+    <cfRule type="expression" dxfId="28" priority="2">
       <formula>NOT(AND(   OR(AND(CODE(LEFT(C2,1))&gt;=65, CODE(LEFT(C2,1))&lt;=90), AND(CODE(LEFT(C2,1))&gt;=97, CODE(LEFT(C2,1))&lt;=122)),   SUMPRODUCT(--ISNUMBER(SEARCH(MID(C2, ROW(INDIRECT("1:" &amp; LEN(C2))), 1), "ABCDEFGHIJKLMNOPQRSTUVWXYZabcdefghijklmnopqrstuvwxyz0123456789_")))=LEN(C2) ))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3782,7 +3856,7 @@
   </sheetPr>
   <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
@@ -3841,19 +3915,19 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="15" x14ac:dyDescent="0.3">
-      <c r="A2" s="60">
+      <c r="A2" s="63">
         <v>1</v>
       </c>
-      <c r="B2" s="60" t="s">
+      <c r="B2" s="63" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="60" t="s">
+      <c r="C2" s="63" t="s">
         <v>51</v>
       </c>
-      <c r="D2" s="60" t="s">
+      <c r="D2" s="63" t="s">
         <v>127</v>
       </c>
-      <c r="E2" s="60" t="s">
+      <c r="E2" s="63" t="s">
         <v>350</v>
       </c>
       <c r="F2" s="21" t="s">
@@ -3871,11 +3945,11 @@
       <c r="L2" s="21"/>
     </row>
     <row r="3" spans="1:12" ht="15" x14ac:dyDescent="0.3">
-      <c r="A3" s="60"/>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
+      <c r="A3" s="63"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
       <c r="F3" s="21" t="s">
         <v>345</v>
       </c>
@@ -3891,11 +3965,11 @@
       <c r="L3" s="32"/>
     </row>
     <row r="4" spans="1:12" ht="15" x14ac:dyDescent="0.3">
-      <c r="A4" s="60"/>
-      <c r="B4" s="60"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
+      <c r="A4" s="63"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
       <c r="F4" s="21" t="s">
         <v>346</v>
       </c>
@@ -3911,11 +3985,11 @@
       <c r="L4" s="21"/>
     </row>
     <row r="5" spans="1:12" ht="15" x14ac:dyDescent="0.3">
-      <c r="A5" s="60"/>
-      <c r="B5" s="60"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
+      <c r="A5" s="63"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
       <c r="F5" s="21" t="s">
         <v>347</v>
       </c>
@@ -3931,11 +4005,11 @@
       <c r="L5" s="21"/>
     </row>
     <row r="6" spans="1:12" ht="15" x14ac:dyDescent="0.3">
-      <c r="A6" s="60"/>
-      <c r="B6" s="60"/>
-      <c r="C6" s="60"/>
-      <c r="D6" s="60"/>
-      <c r="E6" s="60"/>
+      <c r="A6" s="63"/>
+      <c r="B6" s="63"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="63"/>
       <c r="F6" s="21" t="s">
         <v>348</v>
       </c>
@@ -3982,26 +4056,26 @@
       <c r="K7" s="21"/>
       <c r="L7" s="21"/>
     </row>
-    <row r="8" spans="1:12" ht="15" x14ac:dyDescent="0.3">
-      <c r="A8" s="60">
+    <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="63">
         <v>3</v>
       </c>
-      <c r="B8" s="60" t="s">
+      <c r="B8" s="63" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="60" t="s">
+      <c r="C8" s="63" t="s">
         <v>411</v>
       </c>
-      <c r="D8" s="60" t="s">
+      <c r="D8" s="63" t="s">
         <v>127</v>
       </c>
-      <c r="E8" s="60" t="s">
+      <c r="E8" s="63" t="s">
         <v>473</v>
       </c>
       <c r="F8" s="21" t="s">
         <v>468</v>
       </c>
-      <c r="G8" s="21"/>
+      <c r="G8" s="71"/>
       <c r="H8" s="37" t="s">
         <v>395</v>
       </c>
@@ -4013,17 +4087,15 @@
       <c r="L8" s="21"/>
     </row>
     <row r="9" spans="1:12" ht="15" x14ac:dyDescent="0.3">
-      <c r="A9" s="60"/>
-      <c r="B9" s="60"/>
-      <c r="C9" s="60"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="60"/>
+      <c r="A9" s="63"/>
+      <c r="B9" s="63"/>
+      <c r="C9" s="63"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="63"/>
       <c r="F9" s="21" t="s">
         <v>469</v>
       </c>
-      <c r="G9" s="21" t="s">
-        <v>353</v>
-      </c>
+      <c r="G9" s="71"/>
       <c r="H9" s="37" t="s">
         <v>395</v>
       </c>
@@ -4035,17 +4107,15 @@
       <c r="L9" s="32"/>
     </row>
     <row r="10" spans="1:12" ht="15" x14ac:dyDescent="0.3">
-      <c r="A10" s="60"/>
-      <c r="B10" s="60"/>
-      <c r="C10" s="60"/>
-      <c r="D10" s="60"/>
-      <c r="E10" s="60"/>
+      <c r="A10" s="63"/>
+      <c r="B10" s="63"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="63"/>
       <c r="F10" s="21" t="s">
         <v>470</v>
       </c>
-      <c r="G10" s="21" t="s">
-        <v>354</v>
-      </c>
+      <c r="G10" s="71"/>
       <c r="H10" s="37" t="s">
         <v>395</v>
       </c>
@@ -4057,17 +4127,15 @@
       <c r="L10" s="21"/>
     </row>
     <row r="11" spans="1:12" ht="15" x14ac:dyDescent="0.3">
-      <c r="A11" s="60"/>
-      <c r="B11" s="60"/>
-      <c r="C11" s="60"/>
-      <c r="D11" s="60"/>
-      <c r="E11" s="60"/>
+      <c r="A11" s="63"/>
+      <c r="B11" s="63"/>
+      <c r="C11" s="63"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="63"/>
       <c r="F11" s="21" t="s">
         <v>471</v>
       </c>
-      <c r="G11" s="21" t="s">
-        <v>349</v>
-      </c>
+      <c r="G11" s="71"/>
       <c r="H11" s="37" t="s">
         <v>395</v>
       </c>
@@ -4079,17 +4147,15 @@
       <c r="L11" s="21"/>
     </row>
     <row r="12" spans="1:12" ht="15" x14ac:dyDescent="0.3">
-      <c r="A12" s="60"/>
-      <c r="B12" s="60"/>
-      <c r="C12" s="60"/>
-      <c r="D12" s="60"/>
-      <c r="E12" s="60"/>
+      <c r="A12" s="63"/>
+      <c r="B12" s="63"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="63"/>
       <c r="F12" s="21" t="s">
         <v>472</v>
       </c>
-      <c r="G12" s="21" t="s">
-        <v>353</v>
-      </c>
+      <c r="G12" s="71"/>
       <c r="H12" s="37" t="s">
         <v>395</v>
       </c>
@@ -4133,22 +4199,22 @@
       <c r="L13" s="21"/>
     </row>
     <row r="14" spans="1:12" ht="15" x14ac:dyDescent="0.3">
-      <c r="A14" s="60">
+      <c r="A14" s="63">
         <v>5</v>
       </c>
-      <c r="B14" s="60" t="s">
+      <c r="B14" s="63" t="s">
         <v>50</v>
       </c>
-      <c r="C14" s="60" t="s">
+      <c r="C14" s="63" t="s">
         <v>449</v>
       </c>
-      <c r="D14" s="60" t="s">
+      <c r="D14" s="63" t="s">
         <v>52</v>
       </c>
-      <c r="E14" s="60" t="s">
+      <c r="E14" s="63" t="s">
         <v>363</v>
       </c>
-      <c r="F14" s="60" t="s">
+      <c r="F14" s="63" t="s">
         <v>364</v>
       </c>
       <c r="G14" s="21" t="s">
@@ -4165,14 +4231,14 @@
       <c r="L14" s="21"/>
     </row>
     <row r="15" spans="1:12" ht="15" x14ac:dyDescent="0.3">
-      <c r="A15" s="60">
+      <c r="A15" s="63">
         <v>2</v>
       </c>
-      <c r="B15" s="60"/>
-      <c r="C15" s="60"/>
-      <c r="D15" s="60"/>
-      <c r="E15" s="60"/>
-      <c r="F15" s="60"/>
+      <c r="B15" s="63"/>
+      <c r="C15" s="63"/>
+      <c r="D15" s="63"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="63"/>
       <c r="G15" s="21" t="s">
         <v>366</v>
       </c>
@@ -4187,14 +4253,14 @@
       <c r="L15" s="32"/>
     </row>
     <row r="16" spans="1:12" ht="15" x14ac:dyDescent="0.3">
-      <c r="A16" s="60">
+      <c r="A16" s="63">
         <v>3</v>
       </c>
-      <c r="B16" s="60"/>
-      <c r="C16" s="60"/>
-      <c r="D16" s="60"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="60"/>
+      <c r="B16" s="63"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="63"/>
+      <c r="E16" s="63"/>
+      <c r="F16" s="63"/>
       <c r="G16" s="21" t="s">
         <v>367</v>
       </c>
@@ -4209,14 +4275,14 @@
       <c r="L16" s="21"/>
     </row>
     <row r="17" spans="1:12" ht="15" x14ac:dyDescent="0.3">
-      <c r="A17" s="60">
+      <c r="A17" s="63">
         <v>4</v>
       </c>
-      <c r="B17" s="60"/>
-      <c r="C17" s="60"/>
-      <c r="D17" s="60"/>
-      <c r="E17" s="60"/>
-      <c r="F17" s="60"/>
+      <c r="B17" s="63"/>
+      <c r="C17" s="63"/>
+      <c r="D17" s="63"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="63"/>
       <c r="G17" s="21" t="s">
         <v>368</v>
       </c>
@@ -4231,14 +4297,14 @@
       <c r="L17" s="21"/>
     </row>
     <row r="18" spans="1:12" ht="15" x14ac:dyDescent="0.3">
-      <c r="A18" s="60">
+      <c r="A18" s="63">
         <v>5</v>
       </c>
-      <c r="B18" s="60"/>
-      <c r="C18" s="60"/>
-      <c r="D18" s="60"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="60"/>
+      <c r="B18" s="63"/>
+      <c r="C18" s="63"/>
+      <c r="D18" s="63"/>
+      <c r="E18" s="63"/>
+      <c r="F18" s="63"/>
       <c r="G18" s="21" t="s">
         <v>369</v>
       </c>
@@ -4253,22 +4319,22 @@
       <c r="L18" s="21"/>
     </row>
     <row r="19" spans="1:12" ht="15" x14ac:dyDescent="0.3">
-      <c r="A19" s="60">
+      <c r="A19" s="63">
         <v>6</v>
       </c>
-      <c r="B19" s="60" t="s">
+      <c r="B19" s="63" t="s">
         <v>50</v>
       </c>
-      <c r="C19" s="60" t="s">
+      <c r="C19" s="63" t="s">
         <v>370</v>
       </c>
-      <c r="D19" s="60" t="s">
+      <c r="D19" s="63" t="s">
         <v>132</v>
       </c>
-      <c r="E19" s="60" t="s">
+      <c r="E19" s="63" t="s">
         <v>371</v>
       </c>
-      <c r="F19" s="60" t="s">
+      <c r="F19" s="63" t="s">
         <v>465</v>
       </c>
       <c r="G19" s="21" t="s">
@@ -4285,14 +4351,14 @@
       <c r="L19" s="21"/>
     </row>
     <row r="20" spans="1:12" ht="15" x14ac:dyDescent="0.3">
-      <c r="A20" s="60">
+      <c r="A20" s="63">
         <v>2</v>
       </c>
-      <c r="B20" s="60"/>
-      <c r="C20" s="60"/>
-      <c r="D20" s="60"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="60"/>
+      <c r="B20" s="63"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="63"/>
+      <c r="E20" s="63"/>
+      <c r="F20" s="63"/>
       <c r="G20" s="21" t="s">
         <v>366</v>
       </c>
@@ -4307,14 +4373,14 @@
       <c r="L20" s="32"/>
     </row>
     <row r="21" spans="1:12" ht="15" x14ac:dyDescent="0.3">
-      <c r="A21" s="60">
+      <c r="A21" s="63">
         <v>3</v>
       </c>
-      <c r="B21" s="60"/>
-      <c r="C21" s="60"/>
-      <c r="D21" s="60"/>
-      <c r="E21" s="60"/>
-      <c r="F21" s="60" t="s">
+      <c r="B21" s="63"/>
+      <c r="C21" s="63"/>
+      <c r="D21" s="63"/>
+      <c r="E21" s="63"/>
+      <c r="F21" s="63" t="s">
         <v>372</v>
       </c>
       <c r="G21" s="21" t="s">
@@ -4331,14 +4397,14 @@
       <c r="L21" s="21"/>
     </row>
     <row r="22" spans="1:12" ht="15" x14ac:dyDescent="0.3">
-      <c r="A22" s="60">
+      <c r="A22" s="63">
         <v>4</v>
       </c>
-      <c r="B22" s="60"/>
-      <c r="C22" s="60"/>
-      <c r="D22" s="60"/>
-      <c r="E22" s="60"/>
-      <c r="F22" s="60"/>
+      <c r="B22" s="63"/>
+      <c r="C22" s="63"/>
+      <c r="D22" s="63"/>
+      <c r="E22" s="63"/>
+      <c r="F22" s="63"/>
       <c r="G22" s="21" t="s">
         <v>368</v>
       </c>
@@ -4353,14 +4419,14 @@
       <c r="L22" s="21"/>
     </row>
     <row r="23" spans="1:12" ht="15" x14ac:dyDescent="0.3">
-      <c r="A23" s="60">
+      <c r="A23" s="63">
         <v>5</v>
       </c>
-      <c r="B23" s="60"/>
-      <c r="C23" s="60"/>
-      <c r="D23" s="60"/>
-      <c r="E23" s="60"/>
-      <c r="F23" s="60"/>
+      <c r="B23" s="63"/>
+      <c r="C23" s="63"/>
+      <c r="D23" s="63"/>
+      <c r="E23" s="63"/>
+      <c r="F23" s="63"/>
       <c r="G23" s="21" t="s">
         <v>369</v>
       </c>
@@ -4375,22 +4441,22 @@
       <c r="L23" s="21"/>
     </row>
     <row r="24" spans="1:12" ht="15" x14ac:dyDescent="0.3">
-      <c r="A24" s="60">
+      <c r="A24" s="63">
         <v>7</v>
       </c>
-      <c r="B24" s="60" t="s">
+      <c r="B24" s="63" t="s">
         <v>50</v>
       </c>
-      <c r="C24" s="60" t="s">
+      <c r="C24" s="63" t="s">
         <v>373</v>
       </c>
-      <c r="D24" s="60" t="s">
+      <c r="D24" s="63" t="s">
         <v>57</v>
       </c>
-      <c r="E24" s="60" t="s">
+      <c r="E24" s="63" t="s">
         <v>374</v>
       </c>
-      <c r="F24" s="60" t="s">
+      <c r="F24" s="63" t="s">
         <v>375</v>
       </c>
       <c r="G24" s="33" t="s">
@@ -4407,12 +4473,12 @@
       <c r="L24" s="21"/>
     </row>
     <row r="25" spans="1:12" ht="15" x14ac:dyDescent="0.3">
-      <c r="A25" s="60"/>
-      <c r="B25" s="60"/>
-      <c r="C25" s="60"/>
-      <c r="D25" s="60"/>
-      <c r="E25" s="60"/>
-      <c r="F25" s="60"/>
+      <c r="A25" s="63"/>
+      <c r="B25" s="63"/>
+      <c r="C25" s="63"/>
+      <c r="D25" s="63"/>
+      <c r="E25" s="63"/>
+      <c r="F25" s="63"/>
       <c r="G25" s="33" t="s">
         <v>407</v>
       </c>
@@ -4427,12 +4493,12 @@
       <c r="L25" s="32"/>
     </row>
     <row r="26" spans="1:12" ht="15" x14ac:dyDescent="0.3">
-      <c r="A26" s="60"/>
-      <c r="B26" s="60"/>
-      <c r="C26" s="60"/>
-      <c r="D26" s="60"/>
-      <c r="E26" s="60"/>
-      <c r="F26" s="60" t="s">
+      <c r="A26" s="63"/>
+      <c r="B26" s="63"/>
+      <c r="C26" s="63"/>
+      <c r="D26" s="63"/>
+      <c r="E26" s="63"/>
+      <c r="F26" s="63" t="s">
         <v>376</v>
       </c>
       <c r="G26" s="33" t="s">
@@ -4449,12 +4515,12 @@
       <c r="L26" s="21"/>
     </row>
     <row r="27" spans="1:12" ht="15" x14ac:dyDescent="0.3">
-      <c r="A27" s="60"/>
-      <c r="B27" s="60"/>
-      <c r="C27" s="60"/>
-      <c r="D27" s="60"/>
-      <c r="E27" s="60"/>
-      <c r="F27" s="60"/>
+      <c r="A27" s="63"/>
+      <c r="B27" s="63"/>
+      <c r="C27" s="63"/>
+      <c r="D27" s="63"/>
+      <c r="E27" s="63"/>
+      <c r="F27" s="63"/>
       <c r="G27" s="33" t="s">
         <v>408</v>
       </c>
@@ -4470,17 +4536,27 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="C14:C18"/>
+    <mergeCell ref="D14:D18"/>
+    <mergeCell ref="E14:E18"/>
+    <mergeCell ref="F14:F18"/>
     <mergeCell ref="B24:B27"/>
     <mergeCell ref="C24:C27"/>
     <mergeCell ref="D24:D27"/>
     <mergeCell ref="E24:E27"/>
     <mergeCell ref="F24:F25"/>
     <mergeCell ref="F26:F27"/>
-    <mergeCell ref="B14:B18"/>
-    <mergeCell ref="C14:C18"/>
-    <mergeCell ref="D14:D18"/>
-    <mergeCell ref="E14:E18"/>
-    <mergeCell ref="F14:F18"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="C19:C23"/>
+    <mergeCell ref="D19:D23"/>
+    <mergeCell ref="E19:E23"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="F21:F23"/>
     <mergeCell ref="B2:B6"/>
     <mergeCell ref="C2:C6"/>
     <mergeCell ref="D2:D6"/>
@@ -4489,56 +4565,67 @@
     <mergeCell ref="C8:C12"/>
     <mergeCell ref="D8:D12"/>
     <mergeCell ref="E8:E12"/>
-    <mergeCell ref="B19:B23"/>
-    <mergeCell ref="C19:C23"/>
-    <mergeCell ref="D19:D23"/>
-    <mergeCell ref="E19:E23"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="F21:F23"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A8:A12"/>
-    <mergeCell ref="A14:A18"/>
-    <mergeCell ref="A19:A23"/>
-    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="B14:B18"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="C2:C1048">
-    <cfRule type="duplicateValues" dxfId="22" priority="4"/>
-    <cfRule type="expression" dxfId="21" priority="9">
+    <cfRule type="duplicateValues" dxfId="27" priority="4"/>
+    <cfRule type="expression" dxfId="26" priority="9">
       <formula>NOT(AND(   OR(AND(CODE(LEFT(C2,1))&gt;=65, CODE(LEFT(C2,1))&lt;=90), AND(CODE(LEFT(C2,1))&gt;=97, CODE(LEFT(C2,1))&lt;=122)),   SUMPRODUCT(--ISNUMBER(SEARCH(MID(C2, ROW(INDIRECT("1:" &amp; LEN(C2))), 1), "ABCDEFGHIJKLMNOPQRSTUVWXYZabcdefghijklmnopqrstuvwxyz0123456789_")))=LEN(C2) ))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E1048">
-    <cfRule type="expression" dxfId="20" priority="3">
+  <conditionalFormatting sqref="E2:E7 E9:E11 E13:E1048">
+    <cfRule type="expression" dxfId="25" priority="3">
       <formula>AND(E2&lt;&gt;"", COUNTIF(E:E, E2) &gt; 1,     OR(D2&lt;&gt;INDEX(D:D, MATCH(E2, E:E, 0)),        F2&lt;&gt;INDEX(F:F, MATCH(E2, E:E, 0)),        AND(OR(D2="ClientServerInterface", D2="TriggerInterface", D2="ModeSwitchInterface"),            G2&lt;&gt;INDEX(G:G, MATCH(E2, E:E, 0)))     ) )</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="E8">
+    <cfRule type="expression" dxfId="24" priority="15">
+      <formula>AND(E8&lt;&gt;"", COUNTIF(E:E, E8) &gt; 1,     OR(D8&lt;&gt;INDEX(D:D, MATCH(E8, E:E, 0)),        F8&lt;&gt;INDEX(F:F, MATCH(E8, E:E, 0)),        AND(OR(D8="ClientServerInterface", D8="TriggerInterface", D8="ModeSwitchInterface"),            #REF!&lt;&gt;INDEX(G:G, MATCH(E8, E:E, 0)))     ) )</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E12">
+    <cfRule type="expression" dxfId="23" priority="14">
+      <formula>AND(E12&lt;&gt;"", COUNTIF(E:E, E12) &gt; 1,     OR(D12&lt;&gt;INDEX(D:D, MATCH(E12, E:E, 0)),        F12&lt;&gt;INDEX(F:F, MATCH(E12, E:E, 0)),        AND(OR(D12="ClientServerInterface", D12="TriggerInterface", D12="ModeSwitchInterface"),            G8&lt;&gt;INDEX(G:G, MATCH(E12, E:E, 0)))     ) )</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="E2:F1048">
-    <cfRule type="expression" dxfId="19" priority="10">
+    <cfRule type="expression" dxfId="22" priority="10">
       <formula>NOT(AND(   OR(AND(CODE(LEFT(E2,1))&gt;=65, CODE(LEFT(E2,1))&lt;=90), AND(CODE(LEFT(E2,1))&gt;=97, CODE(LEFT(E2,1))&lt;=122)),   SUMPRODUCT(--ISNUMBER(SEARCH(MID(E2, ROW(INDIRECT("1:" &amp; LEN(E2))), 1), "ABCDEFGHIJKLMNOPQRSTUVWXYZabcdefghijklmnopqrstuvwxyz0123456789_")))=LEN(E2) ))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F1048">
-    <cfRule type="expression" dxfId="18" priority="1">
+    <cfRule type="expression" dxfId="21" priority="1">
       <formula>AND(  COUNTIF($F:$F, $F2) &gt; 1,  OR(    AND($AM2 = INDEX($AM:$AM, MATCH($F2, $F:$F, 0)), $AN2 = INDEX($AN:$AN, MATCH($F2, $F:$F, 0))),      AND($AM2 &lt;&gt; INDEX($AM:$AM, MATCH($F2, $F:$F, 0)), $AN2 &lt;&gt; INDEX($AN:$AN, MATCH($F2, $F:$F, 0)))    ),  NOT(AND($AM2 = INDEX($AM:$AM, MATCH($F2, $F:$F, 0)), $AN2 &lt;&gt; INDEX($AN:$AN, MATCH($F2, $F:$F, 0))))  )</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G1048">
-    <cfRule type="expression" dxfId="17" priority="5">
+  <conditionalFormatting sqref="G2:G7 G13:G1048">
+    <cfRule type="expression" dxfId="20" priority="5">
       <formula>AND(   LOOKUP(2,1/(B$2:B2&lt;&gt;""),B$2:B2)="SenderPort",   OR(LOOKUP(2,1/(D$2:D2&lt;&gt;""),D$2:D2)="SenderReceiverInterface",      LOOKUP(2,1/(D$2:D2&lt;&gt;""),D$2:D2)="NvDataInterface"),   COUNTIF(G2, "dsp")+COUNTIF(G2, "dwa")=0 )</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="6">
+    <cfRule type="expression" dxfId="19" priority="6">
       <formula>AND(   LOOKUP(2,1/(B$2:B2&lt;&gt;""),B$2:B2)="ReceiverPort",   OR(LOOKUP(2,1/(D$2:D2&lt;&gt;""),D$2:D2)="SenderReceiverInterface",      LOOKUP(2,1/(D$2:D2&lt;&gt;""),D$2:D2)="NvDataInterface"),   COUNTIF(G2, "dra")+COUNTIF(G2, "drpa")+COUNTIF(G2, "drpv")=0 )</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="8">
+    <cfRule type="expression" dxfId="18" priority="8">
       <formula>IF(LOOKUP(2,1/(D$2:D2&lt;&gt;""),D$2:D2)="TriggerInterface",    NOT(SUMPRODUCT(--ISNUMBER(SEARCH(MID(G2, ROW(INDIRECT("1:" &amp; LEN(G2))), 1), "0123456789")))=LEN(G2)),    NOT(AND(       OR(AND(CODE(LEFT(G2,1))&gt;=65, CODE(LEFT(G2,1))&lt;=90), AND(CODE(LEFT(G2,1))&gt;=97, CODE(LEFT(G2,1))&lt;=122)),       SUMPRODUCT(--ISNUMBER(SEARCH(MID(G2, ROW(INDIRECT("1:" &amp; LEN(G2))), 1), "ABCDEFGHIJKLMNOPQRSTUVWXYZabcdefghijklmnopqrstuvwxyz0123456789_")))=LEN(G2)    )) )</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="G8">
+    <cfRule type="expression" dxfId="17" priority="20">
+      <formula>AND(   LOOKUP(2,1/(B$2:B12&lt;&gt;""),B$2:B12)="SenderPort",   OR(LOOKUP(2,1/(D$2:D12&lt;&gt;""),D$2:D12)="SenderReceiverInterface",      LOOKUP(2,1/(D$2:D12&lt;&gt;""),D$2:D12)="NvDataInterface"),   COUNTIF(G8, "dsp")+COUNTIF(G8, "dwa")=0 )</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="16" priority="21">
+      <formula>AND(   LOOKUP(2,1/(B$2:B12&lt;&gt;""),B$2:B12)="ReceiverPort",   OR(LOOKUP(2,1/(D$2:D12&lt;&gt;""),D$2:D12)="SenderReceiverInterface",      LOOKUP(2,1/(D$2:D12&lt;&gt;""),D$2:D12)="NvDataInterface"),   COUNTIF(G8, "dra")+COUNTIF(G8, "drpa")+COUNTIF(G8, "drpv")=0 )</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="15" priority="22">
+      <formula>IF(LOOKUP(2,1/(D$2:D12&lt;&gt;""),D$2:D12)="TriggerInterface",    NOT(SUMPRODUCT(--ISNUMBER(SEARCH(MID(G8, ROW(INDIRECT("1:" &amp; LEN(G8))), 1), "0123456789")))=LEN(G8)),    NOT(AND(       OR(AND(CODE(LEFT(G8,1))&gt;=65, CODE(LEFT(G8,1))&lt;=90), AND(CODE(LEFT(G8,1))&gt;=97, CODE(LEFT(G8,1))&lt;=122)),       SUMPRODUCT(--ISNUMBER(SEARCH(MID(G8, ROW(INDIRECT("1:" &amp; LEN(G8))), 1), "ABCDEFGHIJKLMNOPQRSTUVWXYZabcdefghijklmnopqrstuvwxyz0123456789_")))=LEN(G8)    )) )</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H27" xr:uid="{816E3474-2C75-4BC5-ABC2-95840D3832E9}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H27" xr:uid="{A590F6E3-154D-4775-9EE4-613A63834B48}">
       <formula1>CombinedDropdown</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I27" xr:uid="{24880E22-3EDE-4718-8964-41CF6654967D}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I27" xr:uid="{50D7F40E-CF6A-4664-8E10-2DA28CE1CECB}">
       <formula1>RNBL</formula1>
     </dataValidation>
   </dataValidations>
@@ -4550,24 +4637,30 @@
   </headerFooter>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{2D40AFA7-2B1D-4C2E-A01E-A27F77F6ED2A}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{09C28036-B1BF-40B4-844E-ECDF9A58ADF6}">
           <x14:formula1>
             <xm:f>enum_list!$B$15:$B$16</xm:f>
           </x14:formula1>
           <xm:sqref>B2 B7:B8 B13:B14 B19 B24</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{088E6275-7578-4B91-8233-3F06102809A3}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{0F3FED29-C1F4-40E5-809F-3236A7F3BFD8}">
           <x14:formula1>
             <xm:f>enum_list!$F$12:$F$17</xm:f>
           </x14:formula1>
           <xm:sqref>D2:D27</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" xr:uid="{773F000A-679E-4688-BC75-E8B35F2B6FFF}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" xr:uid="{9292E45D-7EDA-4112-B34A-BCD0D82891FB}">
           <x14:formula1>
             <xm:f>IF(enum_list!AH2&lt;&gt;"", INDIRECT(enum_list!AH2), "")</xm:f>
           </x14:formula1>
-          <xm:sqref>G2:G1608</xm:sqref>
+          <xm:sqref>G2:G7 G13:G1608</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" xr:uid="{E0AE42FF-5CCD-4EF8-AFB2-D02F1C4DFDCE}">
+          <x14:formula1>
+            <xm:f>IF(enum_list!AH12&lt;&gt;"", INDIRECT(enum_list!AH12), "")</xm:f>
+          </x14:formula1>
+          <xm:sqref>G8</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -4722,19 +4815,19 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="A4" s="60">
+      <c r="A4" s="63">
         <v>3</v>
       </c>
       <c r="B4" s="67" t="s">
         <v>395</v>
       </c>
-      <c r="C4" s="60" t="s">
+      <c r="C4" s="63" t="s">
         <v>110</v>
       </c>
-      <c r="D4" s="60" t="s">
+      <c r="D4" s="63" t="s">
         <v>377</v>
       </c>
-      <c r="E4" s="60" t="s">
+      <c r="E4" s="63" t="s">
         <v>70</v>
       </c>
       <c r="F4" s="29">
@@ -4743,7 +4836,7 @@
       <c r="G4" s="30" t="s">
         <v>455</v>
       </c>
-      <c r="H4" s="60" t="s">
+      <c r="H4" s="63" t="s">
         <v>73</v>
       </c>
       <c r="I4" s="67" t="s">
@@ -4758,28 +4851,28 @@
       <c r="L4" s="67">
         <v>96</v>
       </c>
-      <c r="M4" s="61" t="s">
+      <c r="M4" s="60" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="A5" s="60"/>
+      <c r="A5" s="63"/>
       <c r="B5" s="67"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
       <c r="F5" s="29">
         <v>0</v>
       </c>
       <c r="G5" s="30" t="s">
         <v>456</v>
       </c>
-      <c r="H5" s="60"/>
+      <c r="H5" s="63"/>
       <c r="I5" s="67"/>
       <c r="J5" s="67"/>
       <c r="K5" s="67"/>
       <c r="L5" s="67"/>
-      <c r="M5" s="63"/>
+      <c r="M5" s="62"/>
     </row>
     <row r="6" spans="1:13" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="64">
@@ -4788,13 +4881,13 @@
       <c r="B6" s="67" t="s">
         <v>77</v>
       </c>
-      <c r="C6" s="60" t="s">
+      <c r="C6" s="63" t="s">
         <v>68</v>
       </c>
       <c r="D6" s="68" t="s">
         <v>78</v>
       </c>
-      <c r="E6" s="60" t="s">
+      <c r="E6" s="63" t="s">
         <v>70</v>
       </c>
       <c r="F6" s="34">
@@ -4803,13 +4896,13 @@
       <c r="G6" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="H6" s="60" t="s">
+      <c r="H6" s="63" t="s">
         <v>73</v>
       </c>
       <c r="I6" s="70" t="s">
         <v>79</v>
       </c>
-      <c r="J6" s="60" t="s">
+      <c r="J6" s="63" t="s">
         <v>72</v>
       </c>
       <c r="K6" s="69">
@@ -4818,142 +4911,142 @@
       <c r="L6" s="69">
         <v>7</v>
       </c>
-      <c r="M6" s="61" t="s">
+      <c r="M6" s="60" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="65"/>
       <c r="B7" s="67"/>
-      <c r="C7" s="60"/>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="63"/>
       <c r="F7" s="29">
         <v>0</v>
       </c>
       <c r="G7" s="30" t="s">
         <v>81</v>
       </c>
-      <c r="H7" s="60"/>
+      <c r="H7" s="63"/>
       <c r="I7" s="67"/>
-      <c r="J7" s="60"/>
+      <c r="J7" s="63"/>
       <c r="K7" s="69"/>
       <c r="L7" s="69"/>
-      <c r="M7" s="62"/>
+      <c r="M7" s="61"/>
     </row>
     <row r="8" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="65"/>
       <c r="B8" s="67"/>
-      <c r="C8" s="60"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="60"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="63"/>
       <c r="F8" s="29">
         <v>1</v>
       </c>
       <c r="G8" s="30" t="s">
         <v>459</v>
       </c>
-      <c r="H8" s="60"/>
+      <c r="H8" s="63"/>
       <c r="I8" s="67"/>
-      <c r="J8" s="60"/>
+      <c r="J8" s="63"/>
       <c r="K8" s="69"/>
       <c r="L8" s="69"/>
-      <c r="M8" s="62"/>
+      <c r="M8" s="61"/>
     </row>
     <row r="9" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="65"/>
       <c r="B9" s="67"/>
-      <c r="C9" s="60"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="60"/>
+      <c r="C9" s="63"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="63"/>
       <c r="F9" s="29">
         <v>2</v>
       </c>
       <c r="G9" s="30" t="s">
         <v>460</v>
       </c>
-      <c r="H9" s="60"/>
+      <c r="H9" s="63"/>
       <c r="I9" s="67"/>
-      <c r="J9" s="60"/>
+      <c r="J9" s="63"/>
       <c r="K9" s="69"/>
       <c r="L9" s="69"/>
-      <c r="M9" s="62"/>
+      <c r="M9" s="61"/>
     </row>
     <row r="10" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="65"/>
       <c r="B10" s="67"/>
-      <c r="C10" s="60"/>
-      <c r="D10" s="60"/>
-      <c r="E10" s="60"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="63"/>
       <c r="F10" s="29">
         <v>4</v>
       </c>
       <c r="G10" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="H10" s="60"/>
+      <c r="H10" s="63"/>
       <c r="I10" s="67"/>
-      <c r="J10" s="60"/>
+      <c r="J10" s="63"/>
       <c r="K10" s="69"/>
       <c r="L10" s="69"/>
-      <c r="M10" s="62"/>
+      <c r="M10" s="61"/>
     </row>
     <row r="11" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="65"/>
       <c r="B11" s="67"/>
-      <c r="C11" s="60"/>
-      <c r="D11" s="60"/>
-      <c r="E11" s="60"/>
+      <c r="C11" s="63"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="63"/>
       <c r="F11" s="29">
         <v>5</v>
       </c>
       <c r="G11" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="H11" s="60"/>
+      <c r="H11" s="63"/>
       <c r="I11" s="67"/>
-      <c r="J11" s="60"/>
+      <c r="J11" s="63"/>
       <c r="K11" s="69"/>
       <c r="L11" s="69"/>
-      <c r="M11" s="62"/>
+      <c r="M11" s="61"/>
     </row>
     <row r="12" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="65"/>
       <c r="B12" s="67"/>
-      <c r="C12" s="60"/>
-      <c r="D12" s="60"/>
-      <c r="E12" s="60"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="63"/>
       <c r="F12" s="29">
         <v>6</v>
       </c>
       <c r="G12" s="30" t="s">
         <v>461</v>
       </c>
-      <c r="H12" s="60"/>
+      <c r="H12" s="63"/>
       <c r="I12" s="67"/>
-      <c r="J12" s="60"/>
+      <c r="J12" s="63"/>
       <c r="K12" s="69"/>
       <c r="L12" s="69"/>
-      <c r="M12" s="62"/>
+      <c r="M12" s="61"/>
     </row>
     <row r="13" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="66"/>
       <c r="B13" s="67"/>
-      <c r="C13" s="60"/>
-      <c r="D13" s="60"/>
-      <c r="E13" s="60"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="63"/>
       <c r="F13" s="29">
         <v>7</v>
       </c>
       <c r="G13" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="H13" s="60"/>
+      <c r="H13" s="63"/>
       <c r="I13" s="67"/>
-      <c r="J13" s="60"/>
+      <c r="J13" s="63"/>
       <c r="K13" s="69"/>
       <c r="L13" s="69"/>
-      <c r="M13" s="63"/>
+      <c r="M13" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="22">
@@ -5329,8 +5422,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{505CC7DF-19BD-48FE-8793-8EDD6B68F86E}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/Input_Excel/24_03_001.xlsx
+++ b/Input_Excel/24_03_001.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tatatechnologies.sharepoint.com/sites/MBSE_Team-SAARCONN/Shared Documents/SAARCONN/Eliminating_SystemDesk/tests/Harshit_arelements_validation_24_03/COMBINED_AUTOMATION/Input_Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23" documentId="8_{0682CB01-6980-4C9D-9945-74DE496AF0E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D892C8AF-A7CB-4F3D-A5FD-3BA3C8701E54}"/>
+  <xr:revisionPtr revIDLastSave="28" documentId="8_{0682CB01-6980-4C9D-9945-74DE496AF0E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3B48D51B-1055-4EBA-A488-8224912BA482}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15480" tabRatio="897" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15480" tabRatio="897" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="project_info" sheetId="2" r:id="rId1"/>
@@ -191,7 +191,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="474">
   <si>
     <t>Document Information</t>
   </si>
@@ -1555,9 +1555,6 @@
     <t>156</t>
   </si>
   <si>
-    <t>abc</t>
-  </si>
-  <si>
     <t>abcd</t>
   </si>
   <si>
@@ -1613,6 +1610,9 @@
   </si>
   <si>
     <t>RSR2</t>
+  </si>
+  <si>
+    <t>Not_Available</t>
   </si>
 </sst>
 </file>
@@ -1913,7 +1913,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2088,6 +2088,18 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2096,9 +2108,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2109,19 +2118,9 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3177,8 +3176,8 @@
   </sheetPr>
   <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView showGridLines="0" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3278,7 +3277,7 @@
         <v>94</v>
       </c>
       <c r="M2" s="20" t="s">
-        <v>373</v>
+        <v>473</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
@@ -3307,7 +3306,7 @@
         <v>94</v>
       </c>
       <c r="M3" s="20" t="s">
-        <v>438</v>
+        <v>473</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
@@ -3384,12 +3383,12 @@
         <v>94</v>
       </c>
       <c r="M6" s="20" t="s">
-        <v>410</v>
+        <v>473</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
   </sheetData>
@@ -3485,8 +3484,8 @@
   </sheetPr>
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3915,19 +3914,19 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="15" x14ac:dyDescent="0.3">
-      <c r="A2" s="63">
+      <c r="A2" s="60">
         <v>1</v>
       </c>
-      <c r="B2" s="63" t="s">
+      <c r="B2" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="63" t="s">
+      <c r="C2" s="60" t="s">
         <v>51</v>
       </c>
-      <c r="D2" s="63" t="s">
+      <c r="D2" s="60" t="s">
         <v>127</v>
       </c>
-      <c r="E2" s="63" t="s">
+      <c r="E2" s="60" t="s">
         <v>350</v>
       </c>
       <c r="F2" s="21" t="s">
@@ -3945,11 +3944,11 @@
       <c r="L2" s="21"/>
     </row>
     <row r="3" spans="1:12" ht="15" x14ac:dyDescent="0.3">
-      <c r="A3" s="63"/>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
+      <c r="A3" s="60"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
       <c r="F3" s="21" t="s">
         <v>345</v>
       </c>
@@ -3965,11 +3964,11 @@
       <c r="L3" s="32"/>
     </row>
     <row r="4" spans="1:12" ht="15" x14ac:dyDescent="0.3">
-      <c r="A4" s="63"/>
-      <c r="B4" s="63"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
+      <c r="A4" s="60"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
       <c r="F4" s="21" t="s">
         <v>346</v>
       </c>
@@ -3985,11 +3984,11 @@
       <c r="L4" s="21"/>
     </row>
     <row r="5" spans="1:12" ht="15" x14ac:dyDescent="0.3">
-      <c r="A5" s="63"/>
-      <c r="B5" s="63"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
+      <c r="A5" s="60"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
       <c r="F5" s="21" t="s">
         <v>347</v>
       </c>
@@ -4005,11 +4004,11 @@
       <c r="L5" s="21"/>
     </row>
     <row r="6" spans="1:12" ht="15" x14ac:dyDescent="0.3">
-      <c r="A6" s="63"/>
-      <c r="B6" s="63"/>
-      <c r="C6" s="63"/>
-      <c r="D6" s="63"/>
-      <c r="E6" s="63"/>
+      <c r="A6" s="60"/>
+      <c r="B6" s="60"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="60"/>
       <c r="F6" s="21" t="s">
         <v>348</v>
       </c>
@@ -4057,25 +4056,25 @@
       <c r="L7" s="21"/>
     </row>
     <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="63">
+      <c r="A8" s="60">
         <v>3</v>
       </c>
-      <c r="B8" s="63" t="s">
+      <c r="B8" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="63" t="s">
+      <c r="C8" s="60" t="s">
         <v>411</v>
       </c>
-      <c r="D8" s="63" t="s">
+      <c r="D8" s="60" t="s">
         <v>127</v>
       </c>
-      <c r="E8" s="63" t="s">
-        <v>473</v>
+      <c r="E8" s="60" t="s">
+        <v>472</v>
       </c>
       <c r="F8" s="21" t="s">
-        <v>468</v>
-      </c>
-      <c r="G8" s="71"/>
+        <v>467</v>
+      </c>
+      <c r="G8" s="21"/>
       <c r="H8" s="37" t="s">
         <v>395</v>
       </c>
@@ -4087,15 +4086,15 @@
       <c r="L8" s="21"/>
     </row>
     <row r="9" spans="1:12" ht="15" x14ac:dyDescent="0.3">
-      <c r="A9" s="63"/>
-      <c r="B9" s="63"/>
-      <c r="C9" s="63"/>
-      <c r="D9" s="63"/>
-      <c r="E9" s="63"/>
+      <c r="A9" s="60"/>
+      <c r="B9" s="60"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="60"/>
       <c r="F9" s="21" t="s">
-        <v>469</v>
-      </c>
-      <c r="G9" s="71"/>
+        <v>468</v>
+      </c>
+      <c r="G9" s="21"/>
       <c r="H9" s="37" t="s">
         <v>395</v>
       </c>
@@ -4107,15 +4106,15 @@
       <c r="L9" s="32"/>
     </row>
     <row r="10" spans="1:12" ht="15" x14ac:dyDescent="0.3">
-      <c r="A10" s="63"/>
-      <c r="B10" s="63"/>
-      <c r="C10" s="63"/>
-      <c r="D10" s="63"/>
-      <c r="E10" s="63"/>
+      <c r="A10" s="60"/>
+      <c r="B10" s="60"/>
+      <c r="C10" s="60"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="60"/>
       <c r="F10" s="21" t="s">
-        <v>470</v>
-      </c>
-      <c r="G10" s="71"/>
+        <v>469</v>
+      </c>
+      <c r="G10" s="21"/>
       <c r="H10" s="37" t="s">
         <v>395</v>
       </c>
@@ -4127,15 +4126,15 @@
       <c r="L10" s="21"/>
     </row>
     <row r="11" spans="1:12" ht="15" x14ac:dyDescent="0.3">
-      <c r="A11" s="63"/>
-      <c r="B11" s="63"/>
-      <c r="C11" s="63"/>
-      <c r="D11" s="63"/>
-      <c r="E11" s="63"/>
+      <c r="A11" s="60"/>
+      <c r="B11" s="60"/>
+      <c r="C11" s="60"/>
+      <c r="D11" s="60"/>
+      <c r="E11" s="60"/>
       <c r="F11" s="21" t="s">
-        <v>471</v>
-      </c>
-      <c r="G11" s="71"/>
+        <v>470</v>
+      </c>
+      <c r="G11" s="21"/>
       <c r="H11" s="37" t="s">
         <v>395</v>
       </c>
@@ -4147,15 +4146,15 @@
       <c r="L11" s="21"/>
     </row>
     <row r="12" spans="1:12" ht="15" x14ac:dyDescent="0.3">
-      <c r="A12" s="63"/>
-      <c r="B12" s="63"/>
-      <c r="C12" s="63"/>
-      <c r="D12" s="63"/>
-      <c r="E12" s="63"/>
+      <c r="A12" s="60"/>
+      <c r="B12" s="60"/>
+      <c r="C12" s="60"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="60"/>
       <c r="F12" s="21" t="s">
-        <v>472</v>
-      </c>
-      <c r="G12" s="71"/>
+        <v>471</v>
+      </c>
+      <c r="G12" s="21"/>
       <c r="H12" s="37" t="s">
         <v>395</v>
       </c>
@@ -4183,7 +4182,7 @@
         <v>352</v>
       </c>
       <c r="F13" s="21" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="G13" s="21" t="s">
         <v>355</v>
@@ -4199,22 +4198,22 @@
       <c r="L13" s="21"/>
     </row>
     <row r="14" spans="1:12" ht="15" x14ac:dyDescent="0.3">
-      <c r="A14" s="63">
+      <c r="A14" s="60">
         <v>5</v>
       </c>
-      <c r="B14" s="63" t="s">
+      <c r="B14" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="C14" s="63" t="s">
+      <c r="C14" s="60" t="s">
         <v>449</v>
       </c>
-      <c r="D14" s="63" t="s">
+      <c r="D14" s="60" t="s">
         <v>52</v>
       </c>
-      <c r="E14" s="63" t="s">
+      <c r="E14" s="60" t="s">
         <v>363</v>
       </c>
-      <c r="F14" s="63" t="s">
+      <c r="F14" s="60" t="s">
         <v>364</v>
       </c>
       <c r="G14" s="21" t="s">
@@ -4231,14 +4230,14 @@
       <c r="L14" s="21"/>
     </row>
     <row r="15" spans="1:12" ht="15" x14ac:dyDescent="0.3">
-      <c r="A15" s="63">
+      <c r="A15" s="60">
         <v>2</v>
       </c>
-      <c r="B15" s="63"/>
-      <c r="C15" s="63"/>
-      <c r="D15" s="63"/>
-      <c r="E15" s="63"/>
-      <c r="F15" s="63"/>
+      <c r="B15" s="60"/>
+      <c r="C15" s="60"/>
+      <c r="D15" s="60"/>
+      <c r="E15" s="60"/>
+      <c r="F15" s="60"/>
       <c r="G15" s="21" t="s">
         <v>366</v>
       </c>
@@ -4253,14 +4252,14 @@
       <c r="L15" s="32"/>
     </row>
     <row r="16" spans="1:12" ht="15" x14ac:dyDescent="0.3">
-      <c r="A16" s="63">
+      <c r="A16" s="60">
         <v>3</v>
       </c>
-      <c r="B16" s="63"/>
-      <c r="C16" s="63"/>
-      <c r="D16" s="63"/>
-      <c r="E16" s="63"/>
-      <c r="F16" s="63"/>
+      <c r="B16" s="60"/>
+      <c r="C16" s="60"/>
+      <c r="D16" s="60"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="60"/>
       <c r="G16" s="21" t="s">
         <v>367</v>
       </c>
@@ -4275,14 +4274,14 @@
       <c r="L16" s="21"/>
     </row>
     <row r="17" spans="1:12" ht="15" x14ac:dyDescent="0.3">
-      <c r="A17" s="63">
+      <c r="A17" s="60">
         <v>4</v>
       </c>
-      <c r="B17" s="63"/>
-      <c r="C17" s="63"/>
-      <c r="D17" s="63"/>
-      <c r="E17" s="63"/>
-      <c r="F17" s="63"/>
+      <c r="B17" s="60"/>
+      <c r="C17" s="60"/>
+      <c r="D17" s="60"/>
+      <c r="E17" s="60"/>
+      <c r="F17" s="60"/>
       <c r="G17" s="21" t="s">
         <v>368</v>
       </c>
@@ -4297,14 +4296,14 @@
       <c r="L17" s="21"/>
     </row>
     <row r="18" spans="1:12" ht="15" x14ac:dyDescent="0.3">
-      <c r="A18" s="63">
+      <c r="A18" s="60">
         <v>5</v>
       </c>
-      <c r="B18" s="63"/>
-      <c r="C18" s="63"/>
-      <c r="D18" s="63"/>
-      <c r="E18" s="63"/>
-      <c r="F18" s="63"/>
+      <c r="B18" s="60"/>
+      <c r="C18" s="60"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="60"/>
       <c r="G18" s="21" t="s">
         <v>369</v>
       </c>
@@ -4319,23 +4318,23 @@
       <c r="L18" s="21"/>
     </row>
     <row r="19" spans="1:12" ht="15" x14ac:dyDescent="0.3">
-      <c r="A19" s="63">
+      <c r="A19" s="60">
         <v>6</v>
       </c>
-      <c r="B19" s="63" t="s">
+      <c r="B19" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="C19" s="63" t="s">
+      <c r="C19" s="60" t="s">
         <v>370</v>
       </c>
-      <c r="D19" s="63" t="s">
+      <c r="D19" s="60" t="s">
         <v>132</v>
       </c>
-      <c r="E19" s="63" t="s">
+      <c r="E19" s="60" t="s">
         <v>371</v>
       </c>
-      <c r="F19" s="63" t="s">
-        <v>465</v>
+      <c r="F19" s="60" t="s">
+        <v>464</v>
       </c>
       <c r="G19" s="21" t="s">
         <v>365</v>
@@ -4351,14 +4350,14 @@
       <c r="L19" s="21"/>
     </row>
     <row r="20" spans="1:12" ht="15" x14ac:dyDescent="0.3">
-      <c r="A20" s="63">
+      <c r="A20" s="60">
         <v>2</v>
       </c>
-      <c r="B20" s="63"/>
-      <c r="C20" s="63"/>
-      <c r="D20" s="63"/>
-      <c r="E20" s="63"/>
-      <c r="F20" s="63"/>
+      <c r="B20" s="60"/>
+      <c r="C20" s="60"/>
+      <c r="D20" s="60"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="60"/>
       <c r="G20" s="21" t="s">
         <v>366</v>
       </c>
@@ -4373,14 +4372,14 @@
       <c r="L20" s="32"/>
     </row>
     <row r="21" spans="1:12" ht="15" x14ac:dyDescent="0.3">
-      <c r="A21" s="63">
+      <c r="A21" s="60">
         <v>3</v>
       </c>
-      <c r="B21" s="63"/>
-      <c r="C21" s="63"/>
-      <c r="D21" s="63"/>
-      <c r="E21" s="63"/>
-      <c r="F21" s="63" t="s">
+      <c r="B21" s="60"/>
+      <c r="C21" s="60"/>
+      <c r="D21" s="60"/>
+      <c r="E21" s="60"/>
+      <c r="F21" s="60" t="s">
         <v>372</v>
       </c>
       <c r="G21" s="21" t="s">
@@ -4397,14 +4396,14 @@
       <c r="L21" s="21"/>
     </row>
     <row r="22" spans="1:12" ht="15" x14ac:dyDescent="0.3">
-      <c r="A22" s="63">
+      <c r="A22" s="60">
         <v>4</v>
       </c>
-      <c r="B22" s="63"/>
-      <c r="C22" s="63"/>
-      <c r="D22" s="63"/>
-      <c r="E22" s="63"/>
-      <c r="F22" s="63"/>
+      <c r="B22" s="60"/>
+      <c r="C22" s="60"/>
+      <c r="D22" s="60"/>
+      <c r="E22" s="60"/>
+      <c r="F22" s="60"/>
       <c r="G22" s="21" t="s">
         <v>368</v>
       </c>
@@ -4419,14 +4418,14 @@
       <c r="L22" s="21"/>
     </row>
     <row r="23" spans="1:12" ht="15" x14ac:dyDescent="0.3">
-      <c r="A23" s="63">
+      <c r="A23" s="60">
         <v>5</v>
       </c>
-      <c r="B23" s="63"/>
-      <c r="C23" s="63"/>
-      <c r="D23" s="63"/>
-      <c r="E23" s="63"/>
-      <c r="F23" s="63"/>
+      <c r="B23" s="60"/>
+      <c r="C23" s="60"/>
+      <c r="D23" s="60"/>
+      <c r="E23" s="60"/>
+      <c r="F23" s="60"/>
       <c r="G23" s="21" t="s">
         <v>369</v>
       </c>
@@ -4441,22 +4440,22 @@
       <c r="L23" s="21"/>
     </row>
     <row r="24" spans="1:12" ht="15" x14ac:dyDescent="0.3">
-      <c r="A24" s="63">
+      <c r="A24" s="60">
         <v>7</v>
       </c>
-      <c r="B24" s="63" t="s">
+      <c r="B24" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="C24" s="63" t="s">
+      <c r="C24" s="60" t="s">
         <v>373</v>
       </c>
-      <c r="D24" s="63" t="s">
+      <c r="D24" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="E24" s="63" t="s">
+      <c r="E24" s="60" t="s">
         <v>374</v>
       </c>
-      <c r="F24" s="63" t="s">
+      <c r="F24" s="60" t="s">
         <v>375</v>
       </c>
       <c r="G24" s="33" t="s">
@@ -4473,12 +4472,12 @@
       <c r="L24" s="21"/>
     </row>
     <row r="25" spans="1:12" ht="15" x14ac:dyDescent="0.3">
-      <c r="A25" s="63"/>
-      <c r="B25" s="63"/>
-      <c r="C25" s="63"/>
-      <c r="D25" s="63"/>
-      <c r="E25" s="63"/>
-      <c r="F25" s="63"/>
+      <c r="A25" s="60"/>
+      <c r="B25" s="60"/>
+      <c r="C25" s="60"/>
+      <c r="D25" s="60"/>
+      <c r="E25" s="60"/>
+      <c r="F25" s="60"/>
       <c r="G25" s="33" t="s">
         <v>407</v>
       </c>
@@ -4493,12 +4492,12 @@
       <c r="L25" s="32"/>
     </row>
     <row r="26" spans="1:12" ht="15" x14ac:dyDescent="0.3">
-      <c r="A26" s="63"/>
-      <c r="B26" s="63"/>
-      <c r="C26" s="63"/>
-      <c r="D26" s="63"/>
-      <c r="E26" s="63"/>
-      <c r="F26" s="63" t="s">
+      <c r="A26" s="60"/>
+      <c r="B26" s="60"/>
+      <c r="C26" s="60"/>
+      <c r="D26" s="60"/>
+      <c r="E26" s="60"/>
+      <c r="F26" s="60" t="s">
         <v>376</v>
       </c>
       <c r="G26" s="33" t="s">
@@ -4515,12 +4514,12 @@
       <c r="L26" s="21"/>
     </row>
     <row r="27" spans="1:12" ht="15" x14ac:dyDescent="0.3">
-      <c r="A27" s="63"/>
-      <c r="B27" s="63"/>
-      <c r="C27" s="63"/>
-      <c r="D27" s="63"/>
-      <c r="E27" s="63"/>
-      <c r="F27" s="63"/>
+      <c r="A27" s="60"/>
+      <c r="B27" s="60"/>
+      <c r="C27" s="60"/>
+      <c r="D27" s="60"/>
+      <c r="E27" s="60"/>
+      <c r="F27" s="60"/>
       <c r="G27" s="33" t="s">
         <v>408</v>
       </c>
@@ -4536,21 +4535,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="C14:C18"/>
-    <mergeCell ref="D14:D18"/>
-    <mergeCell ref="E14:E18"/>
-    <mergeCell ref="F14:F18"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="C24:C27"/>
-    <mergeCell ref="D24:D27"/>
-    <mergeCell ref="E24:E27"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="B19:B23"/>
-    <mergeCell ref="C19:C23"/>
-    <mergeCell ref="D19:D23"/>
-    <mergeCell ref="E19:E23"/>
     <mergeCell ref="A2:A6"/>
     <mergeCell ref="A8:A12"/>
     <mergeCell ref="A14:A18"/>
@@ -4566,6 +4550,21 @@
     <mergeCell ref="D8:D12"/>
     <mergeCell ref="E8:E12"/>
     <mergeCell ref="B14:B18"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="C19:C23"/>
+    <mergeCell ref="D19:D23"/>
+    <mergeCell ref="E19:E23"/>
+    <mergeCell ref="C14:C18"/>
+    <mergeCell ref="D14:D18"/>
+    <mergeCell ref="E14:E18"/>
+    <mergeCell ref="F14:F18"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="C24:C27"/>
+    <mergeCell ref="D24:D27"/>
+    <mergeCell ref="E24:E27"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="F26:F27"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="C2:C1048">
@@ -4675,8 +4674,8 @@
   </sheetPr>
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4:K5"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4753,9 +4752,7 @@
         <v>157</v>
       </c>
       <c r="F2" s="29"/>
-      <c r="G2" s="29" t="s">
-        <v>454</v>
-      </c>
+      <c r="G2" s="29"/>
       <c r="H2" s="30" t="s">
         <v>73</v>
       </c>
@@ -4792,9 +4789,7 @@
         <v>157</v>
       </c>
       <c r="F3" s="29"/>
-      <c r="G3" s="29" t="s">
-        <v>454</v>
-      </c>
+      <c r="G3" s="29"/>
       <c r="H3" s="30" t="s">
         <v>73</v>
       </c>
@@ -4815,79 +4810,79 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="A4" s="63">
+      <c r="A4" s="60">
         <v>3</v>
       </c>
-      <c r="B4" s="67" t="s">
+      <c r="B4" s="63" t="s">
         <v>395</v>
       </c>
-      <c r="C4" s="63" t="s">
+      <c r="C4" s="60" t="s">
         <v>110</v>
       </c>
-      <c r="D4" s="63" t="s">
+      <c r="D4" s="60" t="s">
         <v>377</v>
       </c>
-      <c r="E4" s="63" t="s">
+      <c r="E4" s="60" t="s">
         <v>70</v>
       </c>
       <c r="F4" s="29">
         <v>1</v>
       </c>
       <c r="G4" s="30" t="s">
-        <v>455</v>
-      </c>
-      <c r="H4" s="63" t="s">
+        <v>454</v>
+      </c>
+      <c r="H4" s="60" t="s">
         <v>73</v>
       </c>
-      <c r="I4" s="67" t="s">
+      <c r="I4" s="63" t="s">
         <v>71</v>
       </c>
-      <c r="J4" s="67" t="s">
+      <c r="J4" s="63" t="s">
         <v>72</v>
       </c>
-      <c r="K4" s="67">
+      <c r="K4" s="63">
         <v>0</v>
       </c>
-      <c r="L4" s="67">
+      <c r="L4" s="63">
         <v>96</v>
       </c>
-      <c r="M4" s="60" t="s">
+      <c r="M4" s="64" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="A5" s="63"/>
-      <c r="B5" s="67"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
+      <c r="A5" s="60"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
       <c r="F5" s="29">
         <v>0</v>
       </c>
       <c r="G5" s="30" t="s">
-        <v>456</v>
-      </c>
-      <c r="H5" s="63"/>
-      <c r="I5" s="67"/>
-      <c r="J5" s="67"/>
-      <c r="K5" s="67"/>
-      <c r="L5" s="67"/>
-      <c r="M5" s="62"/>
+        <v>455</v>
+      </c>
+      <c r="H5" s="60"/>
+      <c r="I5" s="63"/>
+      <c r="J5" s="63"/>
+      <c r="K5" s="63"/>
+      <c r="L5" s="63"/>
+      <c r="M5" s="66"/>
     </row>
     <row r="6" spans="1:13" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="64">
+      <c r="A6" s="67">
         <v>4</v>
       </c>
-      <c r="B6" s="67" t="s">
+      <c r="B6" s="63" t="s">
         <v>77</v>
       </c>
-      <c r="C6" s="63" t="s">
+      <c r="C6" s="60" t="s">
         <v>68</v>
       </c>
-      <c r="D6" s="68" t="s">
+      <c r="D6" s="70" t="s">
         <v>78</v>
       </c>
-      <c r="E6" s="63" t="s">
+      <c r="E6" s="60" t="s">
         <v>70</v>
       </c>
       <c r="F6" s="34">
@@ -4896,166 +4891,160 @@
       <c r="G6" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="H6" s="63" t="s">
+      <c r="H6" s="60" t="s">
         <v>73</v>
       </c>
-      <c r="I6" s="70" t="s">
+      <c r="I6" s="62" t="s">
         <v>79</v>
       </c>
-      <c r="J6" s="63" t="s">
+      <c r="J6" s="60" t="s">
         <v>72</v>
       </c>
-      <c r="K6" s="69">
+      <c r="K6" s="61">
         <v>0</v>
       </c>
-      <c r="L6" s="69">
+      <c r="L6" s="61">
         <v>7</v>
       </c>
-      <c r="M6" s="60" t="s">
+      <c r="M6" s="64" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="A7" s="65"/>
-      <c r="B7" s="67"/>
-      <c r="C7" s="63"/>
-      <c r="D7" s="63"/>
-      <c r="E7" s="63"/>
+      <c r="A7" s="68"/>
+      <c r="B7" s="63"/>
+      <c r="C7" s="60"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
       <c r="F7" s="29">
         <v>0</v>
       </c>
       <c r="G7" s="30" t="s">
         <v>81</v>
       </c>
-      <c r="H7" s="63"/>
-      <c r="I7" s="67"/>
-      <c r="J7" s="63"/>
-      <c r="K7" s="69"/>
-      <c r="L7" s="69"/>
-      <c r="M7" s="61"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="63"/>
+      <c r="J7" s="60"/>
+      <c r="K7" s="61"/>
+      <c r="L7" s="61"/>
+      <c r="M7" s="65"/>
     </row>
     <row r="8" spans="1:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="A8" s="65"/>
-      <c r="B8" s="67"/>
-      <c r="C8" s="63"/>
-      <c r="D8" s="63"/>
-      <c r="E8" s="63"/>
+      <c r="A8" s="68"/>
+      <c r="B8" s="63"/>
+      <c r="C8" s="60"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="60"/>
       <c r="F8" s="29">
         <v>1</v>
       </c>
       <c r="G8" s="30" t="s">
-        <v>459</v>
-      </c>
-      <c r="H8" s="63"/>
-      <c r="I8" s="67"/>
-      <c r="J8" s="63"/>
-      <c r="K8" s="69"/>
-      <c r="L8" s="69"/>
-      <c r="M8" s="61"/>
+        <v>458</v>
+      </c>
+      <c r="H8" s="60"/>
+      <c r="I8" s="63"/>
+      <c r="J8" s="60"/>
+      <c r="K8" s="61"/>
+      <c r="L8" s="61"/>
+      <c r="M8" s="65"/>
     </row>
     <row r="9" spans="1:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="A9" s="65"/>
-      <c r="B9" s="67"/>
-      <c r="C9" s="63"/>
-      <c r="D9" s="63"/>
-      <c r="E9" s="63"/>
+      <c r="A9" s="68"/>
+      <c r="B9" s="63"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="60"/>
       <c r="F9" s="29">
         <v>2</v>
       </c>
       <c r="G9" s="30" t="s">
-        <v>460</v>
-      </c>
-      <c r="H9" s="63"/>
-      <c r="I9" s="67"/>
-      <c r="J9" s="63"/>
-      <c r="K9" s="69"/>
-      <c r="L9" s="69"/>
-      <c r="M9" s="61"/>
+        <v>459</v>
+      </c>
+      <c r="H9" s="60"/>
+      <c r="I9" s="63"/>
+      <c r="J9" s="60"/>
+      <c r="K9" s="61"/>
+      <c r="L9" s="61"/>
+      <c r="M9" s="65"/>
     </row>
     <row r="10" spans="1:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="A10" s="65"/>
-      <c r="B10" s="67"/>
-      <c r="C10" s="63"/>
-      <c r="D10" s="63"/>
-      <c r="E10" s="63"/>
+      <c r="A10" s="68"/>
+      <c r="B10" s="63"/>
+      <c r="C10" s="60"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="60"/>
       <c r="F10" s="29">
         <v>4</v>
       </c>
       <c r="G10" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="H10" s="63"/>
-      <c r="I10" s="67"/>
-      <c r="J10" s="63"/>
-      <c r="K10" s="69"/>
-      <c r="L10" s="69"/>
-      <c r="M10" s="61"/>
+      <c r="H10" s="60"/>
+      <c r="I10" s="63"/>
+      <c r="J10" s="60"/>
+      <c r="K10" s="61"/>
+      <c r="L10" s="61"/>
+      <c r="M10" s="65"/>
     </row>
     <row r="11" spans="1:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="A11" s="65"/>
-      <c r="B11" s="67"/>
-      <c r="C11" s="63"/>
-      <c r="D11" s="63"/>
-      <c r="E11" s="63"/>
+      <c r="A11" s="68"/>
+      <c r="B11" s="63"/>
+      <c r="C11" s="60"/>
+      <c r="D11" s="60"/>
+      <c r="E11" s="60"/>
       <c r="F11" s="29">
         <v>5</v>
       </c>
       <c r="G11" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="H11" s="63"/>
-      <c r="I11" s="67"/>
-      <c r="J11" s="63"/>
-      <c r="K11" s="69"/>
-      <c r="L11" s="69"/>
-      <c r="M11" s="61"/>
+      <c r="H11" s="60"/>
+      <c r="I11" s="63"/>
+      <c r="J11" s="60"/>
+      <c r="K11" s="61"/>
+      <c r="L11" s="61"/>
+      <c r="M11" s="65"/>
     </row>
     <row r="12" spans="1:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="A12" s="65"/>
-      <c r="B12" s="67"/>
-      <c r="C12" s="63"/>
-      <c r="D12" s="63"/>
-      <c r="E12" s="63"/>
+      <c r="A12" s="68"/>
+      <c r="B12" s="63"/>
+      <c r="C12" s="60"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="60"/>
       <c r="F12" s="29">
         <v>6</v>
       </c>
       <c r="G12" s="30" t="s">
-        <v>461</v>
-      </c>
-      <c r="H12" s="63"/>
-      <c r="I12" s="67"/>
-      <c r="J12" s="63"/>
-      <c r="K12" s="69"/>
-      <c r="L12" s="69"/>
-      <c r="M12" s="61"/>
+        <v>460</v>
+      </c>
+      <c r="H12" s="60"/>
+      <c r="I12" s="63"/>
+      <c r="J12" s="60"/>
+      <c r="K12" s="61"/>
+      <c r="L12" s="61"/>
+      <c r="M12" s="65"/>
     </row>
     <row r="13" spans="1:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="A13" s="66"/>
-      <c r="B13" s="67"/>
-      <c r="C13" s="63"/>
-      <c r="D13" s="63"/>
-      <c r="E13" s="63"/>
+      <c r="A13" s="69"/>
+      <c r="B13" s="63"/>
+      <c r="C13" s="60"/>
+      <c r="D13" s="60"/>
+      <c r="E13" s="60"/>
       <c r="F13" s="29">
         <v>7</v>
       </c>
       <c r="G13" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="H13" s="63"/>
-      <c r="I13" s="67"/>
-      <c r="J13" s="63"/>
-      <c r="K13" s="69"/>
-      <c r="L13" s="69"/>
-      <c r="M13" s="62"/>
+      <c r="H13" s="60"/>
+      <c r="I13" s="63"/>
+      <c r="J13" s="60"/>
+      <c r="K13" s="61"/>
+      <c r="L13" s="61"/>
+      <c r="M13" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="C6:C13"/>
-    <mergeCell ref="H6:H13"/>
-    <mergeCell ref="J6:J13"/>
-    <mergeCell ref="K6:K13"/>
-    <mergeCell ref="L6:L13"/>
-    <mergeCell ref="I6:I13"/>
     <mergeCell ref="M6:M13"/>
     <mergeCell ref="A6:A13"/>
     <mergeCell ref="M4:M5"/>
@@ -5072,6 +5061,12 @@
     <mergeCell ref="B6:B13"/>
     <mergeCell ref="D6:D13"/>
     <mergeCell ref="E6:E13"/>
+    <mergeCell ref="C6:C13"/>
+    <mergeCell ref="H6:H13"/>
+    <mergeCell ref="J6:J13"/>
+    <mergeCell ref="K6:K13"/>
+    <mergeCell ref="L6:L13"/>
+    <mergeCell ref="I6:I13"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="B2:B1048">
@@ -5206,13 +5201,13 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="64">
+      <c r="A2" s="67">
         <v>1</v>
       </c>
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="67" t="s">
         <v>382</v>
       </c>
-      <c r="C2" s="64" t="s">
+      <c r="C2" s="67" t="s">
         <v>388</v>
       </c>
       <c r="D2" s="26" t="s">
@@ -5224,14 +5219,14 @@
       <c r="F2" s="30" t="s">
         <v>329</v>
       </c>
-      <c r="G2" s="64" t="s">
+      <c r="G2" s="67" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="65"/>
-      <c r="B3" s="65"/>
-      <c r="C3" s="65"/>
+      <c r="A3" s="68"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
       <c r="D3" s="26" t="s">
         <v>390</v>
       </c>
@@ -5241,12 +5236,12 @@
       <c r="F3" s="30" t="s">
         <v>409</v>
       </c>
-      <c r="G3" s="65"/>
+      <c r="G3" s="68"/>
     </row>
     <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A4" s="65"/>
-      <c r="B4" s="65"/>
-      <c r="C4" s="65"/>
+      <c r="A4" s="68"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
       <c r="D4" s="26" t="s">
         <v>391</v>
       </c>
@@ -5256,12 +5251,12 @@
       <c r="F4" s="30" t="s">
         <v>393</v>
       </c>
-      <c r="G4" s="65"/>
+      <c r="G4" s="68"/>
     </row>
     <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A5" s="66"/>
-      <c r="B5" s="66"/>
-      <c r="C5" s="66"/>
+      <c r="A5" s="69"/>
+      <c r="B5" s="69"/>
+      <c r="C5" s="69"/>
       <c r="D5" s="26" t="s">
         <v>392</v>
       </c>
@@ -5271,7 +5266,7 @@
       <c r="F5" s="30" t="s">
         <v>329</v>
       </c>
-      <c r="G5" s="66"/>
+      <c r="G5" s="69"/>
     </row>
     <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="26">
@@ -5320,13 +5315,13 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A8" s="64">
+      <c r="A8" s="67">
         <v>4</v>
       </c>
-      <c r="B8" s="64" t="s">
+      <c r="B8" s="67" t="s">
         <v>382</v>
       </c>
-      <c r="C8" s="64" t="s">
+      <c r="C8" s="67" t="s">
         <v>409</v>
       </c>
       <c r="D8" s="26" t="s">
@@ -5338,14 +5333,14 @@
       <c r="F8" s="30" t="s">
         <v>329</v>
       </c>
-      <c r="G8" s="64" t="s">
+      <c r="G8" s="67" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A9" s="66"/>
-      <c r="B9" s="66"/>
-      <c r="C9" s="66"/>
+      <c r="A9" s="69"/>
+      <c r="B9" s="69"/>
+      <c r="C9" s="69"/>
       <c r="D9" s="26" t="s">
         <v>412</v>
       </c>
@@ -5355,7 +5350,7 @@
       <c r="F9" s="30" t="s">
         <v>388</v>
       </c>
-      <c r="G9" s="66"/>
+      <c r="G9" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -5422,7 +5417,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{505CC7DF-19BD-48FE-8793-8EDD6B68F86E}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A2" workbookViewId="0">
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
@@ -5454,13 +5449,13 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.3">
-      <c r="A2" s="69">
+      <c r="A2" s="61">
         <v>1</v>
       </c>
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="61" t="s">
         <v>382</v>
       </c>
-      <c r="C2" s="69" t="s">
+      <c r="C2" s="61" t="s">
         <v>388</v>
       </c>
       <c r="D2" s="26" t="s">
@@ -5471,9 +5466,9 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.3">
-      <c r="A3" s="69"/>
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
+      <c r="A3" s="61"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
       <c r="D3" s="26" t="s">
         <v>390</v>
       </c>
@@ -5482,9 +5477,9 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.3">
-      <c r="A4" s="69"/>
-      <c r="B4" s="69"/>
-      <c r="C4" s="69"/>
+      <c r="A4" s="61"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
       <c r="D4" s="26" t="s">
         <v>391</v>
       </c>
@@ -5493,9 +5488,9 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.3">
-      <c r="A5" s="69"/>
-      <c r="B5" s="69"/>
-      <c r="C5" s="69"/>
+      <c r="A5" s="61"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="61"/>
       <c r="D5" s="26" t="s">
         <v>392</v>
       </c>
@@ -5721,19 +5716,19 @@
         <v>355</v>
       </c>
       <c r="AK1" s="27" t="s">
+        <v>456</v>
+      </c>
+      <c r="AL1" s="27" t="s">
         <v>457</v>
       </c>
-      <c r="AL1" s="27" t="s">
-        <v>458</v>
-      </c>
       <c r="AM1" s="27" t="s">
+        <v>461</v>
+      </c>
+      <c r="AN1" s="27" t="s">
         <v>462</v>
       </c>
-      <c r="AN1" s="27" t="s">
-        <v>463</v>
-      </c>
       <c r="AO1" s="27" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="2" spans="2:41" ht="15" x14ac:dyDescent="0.25">
@@ -50453,13 +50448,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<titus xmlns="http://schemas.titus.com/TitusProperties/">
-  <TitusGUID xmlns="">5a2381df-b89f-4e9f-827b-28c008549a31</TitusGUID>
-  <TitusMetadata xmlns="">eyJucyI6Imh0dHA6XC9cL3d3dy50aXR1cy5jb21cL25zXC9UVExUSVRVUyIsInByb3BzIjpbeyJuIjoiQ2xhc3NpZmljYXRpb24iLCJ2YWxzIjpbeyJ2YWx1ZSI6IkNvbmZpZGVudGlhbCJ9XX1dfQ==</TitusMetadata>
-</titus>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e4be601-d1eb-4833-8855-b10f66ff5f6e">
@@ -50476,16 +50464,14 @@
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<titus xmlns="http://schemas.titus.com/TitusProperties/">
+  <TitusGUID xmlns="">5a2381df-b89f-4e9f-827b-28c008549a31</TitusGUID>
+  <TitusMetadata xmlns="">eyJucyI6Imh0dHA6XC9cL3d3dy50aXR1cy5jb21cL25zXC9UVExUSVRVUyIsInByb3BzIjpbeyJuIjoiQ2xhc3NpZmljYXRpb24iLCJ2YWxzIjpbeyJ2YWx1ZSI6IkNvbmZpZGVudGlhbCJ9XX1dfQ==</TitusMetadata>
+</titus>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004FF20ACD2ACDAF4B84EF9300C67B2159" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0c36ae600cfc71a682facb2fe9ea4a9f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1e4be601-d1eb-4833-8855-b10f66ff5f6e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="efc49a46b45dba0aa538c93634f147fb" ns2:_="">
     <xsd:import namespace="1e4be601-d1eb-4833-8855-b10f66ff5f6e"/>
@@ -50683,16 +50669,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F2F5D10-2444-49FE-A77C-61C4138B612E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.titus.com/TitusProperties/"/>
-    <ds:schemaRef ds:uri=""/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{955FB65A-AA4A-4AC7-ABF5-73D99F3CD624}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -50702,15 +50688,16 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40670A2F-7A86-4261-8824-D7A1D690F431}">
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F2F5D10-2444-49FE-A77C-61C4138B612E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.titus.com/TitusProperties/"/>
+    <ds:schemaRef ds:uri=""/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{18647F7B-AB5F-435B-9FBB-244B71312A6F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -50726,4 +50713,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40670A2F-7A86-4261-8824-D7A1D690F431}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>